--- a/A_Voznesensky SNA/SNA-data_wAV2.xlsx
+++ b/A_Voznesensky SNA/SNA-data_wAV2.xlsx
@@ -26,7 +26,7 @@
     <t>PROFESSION</t>
   </si>
   <si>
-    <t>AWARDS&amp;HONORS</t>
+    <t>AWARDS</t>
   </si>
   <si>
     <t>PUBLICITY</t>
